--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_019.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_019.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295021AK2.02) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup</t>
-  </si>
-  <si>
-    <t>(295038EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Reactor shutdown/SCRAM</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
-  </si>
-  <si>
-    <t>(295001AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295025EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Isolation condenser (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(295026EK2.11) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295006AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor power response</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(600000AA2.11) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit for use of respirators</t>
-  </si>
-  <si>
-    <t>(295027EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Equipment environmental qualifications</t>
-  </si>
-  <si>
-    <t>(295037EA1.12) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295018AK2.02) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Plant operations</t>
+    <t>(295006AK2.01) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
+  </si>
+  <si>
+    <t>(295018AA1.04) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295024EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295030EK2.10) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Systems required to shut down the reactor</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(295019AK2.04) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295005AA1.09) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(295001AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor power response</t>
+  </si>
+  <si>
+    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295027EK2.07) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Hydrogen recombiners</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295023AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Radiation exposure hazards</t>
+  </si>
+  <si>
+    <t>(600000AA1.08) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Firefighting equipment used on each class of fire</t>
   </si>
   <si>
     <t>(295016AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Disabling/transferring control room controls</t>
   </si>
   <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
-  </si>
-  <si>
-    <t>(700000AA1.06) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295031EK2.05) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295019AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Standby air compressor operation</t>
-  </si>
-  <si>
-    <t>(295009AA2.03) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water cleanup blowdown rate</t>
-  </si>
-  <si>
-    <t>(295002AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Loss of heat sink</t>
-  </si>
-  <si>
-    <t>(295007AA1.05) Ability to operate and/or monitor the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295029EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Lowering suppression pool water level</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(264000K3.04) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Bus frequency/voltage</t>
-  </si>
-  <si>
-    <t>(215004A2.02) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SRMS inoperable condition</t>
-  </si>
-  <si>
-    <t>(261000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Secondary containment differential pressure</t>
-  </si>
-  <si>
-    <t>(209002A3.07) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Emergency diesel generator operation</t>
+    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295021AK2.07) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295017AA1.11) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) PCIS/NSSSS </t>
+  </si>
+  <si>
+    <t>(295033EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.5 / 45.6) Operating ventilation systems</t>
+  </si>
+  <si>
+    <t>(295029EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295008AK2.01) Knowledge of the relationship between the (APE 8) HIGH REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295034EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.8 to 41.10) Radiation releases</t>
+  </si>
+  <si>
+    <t>(215004K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) Changing detector position</t>
+  </si>
+  <si>
+    <t>(263000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant systems using DC control power</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(211000A4.02) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SLCS control switch</t>
+  </si>
+  <si>
+    <t>(259002K4.05) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) P sat/T sat (compensation)</t>
+  </si>
+  <si>
+    <t>(400000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Recirculation system</t>
+  </si>
+  <si>
+    <t>(209002A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Core spray line break</t>
+  </si>
+  <si>
+    <t>(261000K2.03) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Standby gas treatment system initiation logic</t>
+  </si>
+  <si>
+    <t>(209001A3.02) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start</t>
+  </si>
+  <si>
+    <t>(215003A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) IRM back panel switches</t>
+  </si>
+  <si>
+    <t>(217000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(510000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Intake/traveling screen high differential pressure/ differential level</t>
+  </si>
+  <si>
+    <t>(262002K3.21) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) APRM/LPRM/OPRM system</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (291005K1.04) MOTORS AND GENERATORS (CFR: 41.7) Relationship between pump motor current (ammeter reading) and the following: pump fluid flow, head, speed, and stator temperature</t>
+  </si>
+  <si>
+    <t>(223002A4.07) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Reset of system initiations</t>
+  </si>
+  <si>
+    <t>(203000K4.14) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Operation from remote shutdown panel</t>
+  </si>
+  <si>
+    <t>(239002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Nuclear boiler instrument system (pressure indication)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(205000A2.10) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal valve position </t>
+  </si>
+  <si>
+    <t>(262001K2.03) (SF6 AC) AC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Major motor control centers/buses (480 volts and higher)</t>
+  </si>
+  <si>
+    <t>(215005A3.03) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Meters and recorders</t>
+  </si>
+  <si>
+    <t>(264000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Generator load</t>
   </si>
   <si>
     <t>(218000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) LPCS system</t>
   </si>
   <si>
-    <t>(262001K4.02) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Circuit breaker automatic trips</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(217000A4.14) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Resetting isolations</t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(203000K6.17) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) Suppression pool suction strainer clogging</t>
-  </si>
-  <si>
-    <t>(211000K2.03) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Heater power</t>
-  </si>
-  <si>
-    <t>(209001K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) ADS logic</t>
-  </si>
-  <si>
-    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
-  </si>
-  <si>
-    <t>(263000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(215005A3.03) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Meters and recorders</t>
-  </si>
-  <si>
-    <t>(223002K1.29) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (291002K1.21) SENSORS AND DETECTORS (CFR: 41.7) (NUCLEAR INSTRUMENTATION) Effects of voltage changes on neutron detector performance</t>
-  </si>
-  <si>
-    <t>(259002A4.06) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Differential pressure/single/three element control selector switch</t>
-  </si>
-  <si>
-    <t>(239002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Tailpipe temperature monitoring</t>
-  </si>
-  <si>
-    <t>(205000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
-  </si>
-  <si>
-    <t>(264000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant loads</t>
-  </si>
-  <si>
-    <t>(215004A2.01) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded power supply</t>
-  </si>
-  <si>
-    <t>(261000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) System flow</t>
-  </si>
-  <si>
-    <t>(209002A3.01) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(226001K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.7 / 45.7) Condensate transfer</t>
-  </si>
-  <si>
-    <t>(271000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.5 / 45.3 / 45.5) Condenser vacuum</t>
-  </si>
-  <si>
-    <t>(245000K3.01) Knowledge of the effect that a loss or malfunction of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(223001A2.11) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal suppression pool level</t>
-  </si>
-  <si>
-    <t>(233000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.5 / 45.5) Fuel pool clarity</t>
-  </si>
-  <si>
-    <t>(230000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(239003K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
-  </si>
-  <si>
-    <t>(256000K4.08) Knowledge of (SF2 CDS) CONDENSATE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dedicated ECCS water supply</t>
-  </si>
-  <si>
-    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(268000A4.02) Ability to manually operate and/or monitor the (SF9 RW) RADWASTE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Primary containment sump pumps</t>
-  </si>
-  <si>
-    <t>(219000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE: (CFR: 41.5 / 45.3) NPSH/vortex</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292005K1.02) CONTROL RODS (CFR: 41.1) Name the material used for thermal neutron absorption in control rods</t>
-  </si>
-  <si>
-    <t>(292006K1.02) FISSION PRODUCT POISONS (CFR: 41.1) State the characteristics of xenon-135 as a fission product poison</t>
-  </si>
-  <si>
-    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293007K1.01) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe three mechanisms of heat transfer </t>
-  </si>
-  <si>
-    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
-  </si>
-  <si>
-    <t>(293009K1.06) CORE THERMAL LIMITS (CFR: 41.14) (LHGR) Define LHGR</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295025EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295013AA2.01) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262001A2.02) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, “Changes, Tests and Experiments,” screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(217000A2.03) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(204000A2.13) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) System isolation</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(290002A2.05) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding thermal limits</t>
-  </si>
-  <si>
-    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(215004K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) Detector operation</t>
+  </si>
+  <si>
+    <t>(263000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Systems with DC components (e.g., valves, motors, solenoids, instruments)</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(211000A4.06) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) RWCU system isolation</t>
+  </si>
+  <si>
+    <t>(230000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.5 / 45.5) Suppression chamber pressure</t>
+  </si>
+  <si>
+    <t>(215001K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 TIP) TRAVERSING IN CORE PROBE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment isolation system (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(290001K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.5 / 45.3) Secondary containment integrity</t>
+  </si>
+  <si>
+    <t>(239003K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (291007K1.03) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Effects of channeling in a demineralizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(226001A4.02) Ability to manually operate and/or monitor the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Valves </t>
+  </si>
+  <si>
+    <t>(201001K4.03) Knowledge of (SF1 CRDH) CRD HYDRAULIC SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.2-3 / 41.6-7 / 41.10 / 41.12 / 45.1-6) Control rod drive mechanism cooling water flow</t>
+  </si>
+  <si>
+    <t>(202002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.7 / 45.7) Recirculation system</t>
+  </si>
+  <si>
+    <t>(233000A2.04) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trip</t>
+  </si>
+  <si>
+    <t>(245000K2.02) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Lube oil pumps</t>
+  </si>
+  <si>
+    <t>(202001A3.10) Ability to monitor automatic operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.7 / 45.7) VFD start sequence</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292006K1.12) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(292003K1.06) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the effect of delayed neutrons on reactor period</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
+  </si>
+  <si>
+    <t>(293010K1.06) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the operational concerns of uncontrolled cooldown</t>
+  </si>
+  <si>
+    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(500000EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for containment</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(400000A2.06) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Component cooling water system heat exchanger tube leak</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(261000A2.09) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Instrument air system malfunction</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(256000A2.04) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC power failures</t>
+  </si>
+  <si>
+    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(219000A2.16) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool level</t>
+  </si>
+  <si>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>K3</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K6</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
     <t>295021</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
     <t>295037</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295007</t>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>500000</t>
   </si>
   <si>
     <t>295011</t>
   </si>
   <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
     <t>256000</t>
   </si>
   <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>268000</t>
+    <t>288000</t>
   </si>
   <si>
     <t>219000</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>290002</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1480,7 +1480,7 @@
         <v>4.1</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1752,7 +1752,7 @@
         <v>3.6</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1888,7 +1888,7 @@
         <v>3.7</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2041,7 +2041,7 @@
         <v>3.4</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
